--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/demitas.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/demitas.xlsx
@@ -2,25 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr autoCompressPictures="1"/>
-  <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="demitas" sheetId="1" r:id="rId3"/>
+    <sheet name="demitas" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="R1C1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
-    <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">Gods and old beings are arrogant. Their prolonged existence has warped even the world's principles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">신들과 오래된 존재들은 오만하지. 오랜 세월을 살아 온 그 자들은, 세계의 이치마저 일그러뜨린 것이다.</t>
   </si>
   <si>
     <t xml:space="preserve">topics</t>
@@ -104,6 +107,9 @@
     <t xml:space="preserve">I have some questions.</t>
   </si>
   <si>
+    <t xml:space="preserve">듣고 싶은 이야기가 있다</t>
+  </si>
+  <si>
     <t xml:space="preserve">inject</t>
   </si>
   <si>
@@ -122,6 +128,9 @@
     <t xml:space="preserve">Dost thou seek my knowledge?</t>
   </si>
   <si>
+    <t xml:space="preserve">나의 지식을 원하는가.</t>
+  </si>
+  <si>
     <t xml:space="preserve">topics_copy</t>
   </si>
   <si>
@@ -131,10 +140,16 @@
     <t xml:space="preserve">About spellbook reservation</t>
   </si>
   <si>
+    <t xml:space="preserve">마법서 예약에 대해</t>
+  </si>
+  <si>
     <t xml:space="preserve">(戻る)</t>
   </si>
   <si>
     <t xml:space="preserve">(Back)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(돌아간다)</t>
   </si>
   <si>
     <t xml:space="preserve">ほう…魔法に興味があるのか？
@@ -145,6 +160,11 @@
     <t xml:space="preserve">Well... thou art intrigued by magic, art thou? 
 If there is a spellbook thou desirest to have copied, then leave it to me. To decipher each rune, of such an arcane tome, requires time. Should I deem it worthy of my attention, I may see fit to create a copy.
 There are rare books that even I must labor over them, but given sufficient time, a flawless copy shall certainly be within my power.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">호오… 마법에 관심이 있는가?
+혹시 복제하고 싶은 마법서가 있다면, 내게 맡기거라. 마법서의 사본을 만드는 작업은 룬을 한 글자 한 글자 해석해야 하는 고된 일이지. 내가 내키면 복제를 만들어 주마.
+해독이 난해한 것도 있지만, 충분한 시간만 있다면 복제할 수 있을 거다.</t>
   </si>
   <si>
     <t xml:space="preserve">last</t>
@@ -186,6 +206,10 @@
 In times long past, when I yet possessed the form of a mortal man, I delved deep into the runes and mastered the art of spellwriting. A rare skill now lost to those who dwell upon the earth.</t>
   </si>
   <si>
+    <t xml:space="preserve">…#pc. 그대에게 할 이야기가 있다.
+일찍이 사람의 몸으로 지내던 시절, 나는 룬을 연구하여 고대의 마법서를 써내는 기술을 몸에 익혔다. 지상의 자들은 이미 모두 잊게 된, 희귀한 기술이지.</t>
+  </si>
+  <si>
     <t xml:space="preserve">この場所に身を置いて以来、汝たちを遠くから見守っているつもりだったが、イスシズルと対峙するというのであれば、我が知識が必要となるだろう。
 …もし汝が魔術の助力を求めるなら、我の元を訪ねるがいい。</t>
   </si>
@@ -194,41 +218,14 @@
 ...Shouldst thou seek the aid of magic, come forth unto me.</t>
   </si>
   <si>
-    <t xml:space="preserve">completeQuest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">신들이나 오래된 존재들은 오만하지. 오랜 세월을 살아 온 그 자들은, 세계의 이치마저 일그러뜨린 것이다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">듣고 싶은 이야기가 있다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">나의 지식을 원하는가.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마법서 예약에 대해</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(돌아간다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">호오… 마법에 관심이 있는가?
-혹시 복제하고 싶은 마법서가 있다면, 내게 맡기거라. 마법서의 사본을 만드는 작업은 룬을 한 글자 한 글자 해석해야 하는 고된 일이지. 내가 내키면 복제를 만들어 주마.
-해독이 난해한 것도 있지만, 충분한 시간만 있다면 복제할 수 있을 거다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…#pc. 그대에게 할 이야기가 있다.
-일찍이 사람의 몸으로 지내던 시절, 나는 룬을 연구하여 고대의 마법서를 써내는 기술을 몸에 익혔다. 지상의 자들은 이미 모두 잊게 된, 희귀한 기술이지.</t>
-  </si>
-  <si>
     <t xml:space="preserve">이곳에 몸을 두게 된 이래로, 그대들을 멀리서 지켜볼 셈이었다. 그러나 이스시즐과 맞서게 된다면, 나의 지식이 필요하게 될 테지.
 …혹시 그대가 마술의 조력을 갈구한다면, 나를 찾아오거라.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">completeQuest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
   </si>
 </sst>
 </file>
@@ -249,25 +246,25 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -300,7 +297,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -309,66 +306,66 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -382,13 +379,13 @@
   <dxfs count="1">
     <dxf>
       <font>
+        <name val="游ゴシック"/>
+        <charset val="128"/>
+        <family val="2"/>
         <color rgb="FFCC0000"/>
-        <name val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
@@ -564,33 +561,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="L30" sqref="L30"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28" style="1" customWidth="1"/>
-    <col min="4" max="5" width="11.85" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85" style="1" customWidth="1"/>
-    <col min="8" max="9" width="7.09" style="1" customWidth="1"/>
-    <col min="10" max="10" width="60.76" style="1" customWidth="1"/>
-    <col min="11" max="11" width="53.28" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.06" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="7.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="60.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="53.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.06"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,24 +625,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="12.8">
-      <c r="I2" s="1">
-        <f>MAX(I4:I1048576)</f>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I2" s="1" t="n">
+        <f aca="false">MAX(I4:I1048576)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="12.8">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="12.8">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="23.85">
-      <c r="I8" s="1">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
@@ -654,58 +651,58 @@
       <c r="K8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" ht="12.8">
+      <c r="L8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" ht="12.8">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="1">
-        <v>2</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" ht="12.8">
-      <c r="E11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" ht="12.8">
-      <c r="E12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" ht="12.8">
-      <c r="E13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" ht="12.8">
-      <c r="A15" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -714,48 +711,48 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="1">
+      <c r="I15" s="1" t="n">
         <v>3</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" ht="12.8">
+    <row r="16" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="1">
+      <c r="I16" s="1" t="n">
         <v>4</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" ht="12.8">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
         <v>13</v>
@@ -763,26 +760,26 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="1">
+      <c r="I17" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" ht="12.8">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
         <v>13</v>
@@ -790,7 +787,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -800,7 +797,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" ht="12.8">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -814,7 +811,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" ht="12.8">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -828,9 +825,9 @@
       <c r="L20" s="6"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" ht="22.35">
+    <row r="21" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -844,7 +841,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" ht="105.95">
+    <row r="22" customFormat="false" ht="387.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -853,24 +850,24 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="1">
+      <c r="I22" s="1" t="n">
         <v>6</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" ht="12.8">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -883,65 +880,65 @@
       <c r="L23" s="6"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="27" ht="12.8">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" ht="12.8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E28" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" ht="56.7">
-      <c r="I29" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I29" s="1" t="n">
         <v>7</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L29" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I30" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="30" ht="57.45">
-      <c r="I30" s="1">
-        <v>8</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" ht="12.8">
-      <c r="E31" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" ht="12.8">
-      <c r="E32" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I4:I1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/demitas.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/demitas.xlsx
@@ -2,25 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <workbookPr autoCompressPictures="1"/>
+  <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="demitas" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="demitas" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="R1C1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+    <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">Gods and old beings are arrogant. Their prolonged existence has warped even the world's principles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">신들과 오래된 존재들은 오만하지. 오랜 세월을 살아 온 그 자들은, 세계의 이치마저 일그러뜨린 것이다.</t>
   </si>
   <si>
     <t xml:space="preserve">topics</t>
@@ -107,9 +104,6 @@
     <t xml:space="preserve">I have some questions.</t>
   </si>
   <si>
-    <t xml:space="preserve">듣고 싶은 이야기가 있다</t>
-  </si>
-  <si>
     <t xml:space="preserve">inject</t>
   </si>
   <si>
@@ -128,9 +122,6 @@
     <t xml:space="preserve">Dost thou seek my knowledge?</t>
   </si>
   <si>
-    <t xml:space="preserve">나의 지식을 원하는가.</t>
-  </si>
-  <si>
     <t xml:space="preserve">topics_copy</t>
   </si>
   <si>
@@ -140,16 +131,10 @@
     <t xml:space="preserve">About spellbook reservation</t>
   </si>
   <si>
-    <t xml:space="preserve">마법서 예약에 대해</t>
-  </si>
-  <si>
     <t xml:space="preserve">(戻る)</t>
   </si>
   <si>
     <t xml:space="preserve">(Back)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(돌아간다)</t>
   </si>
   <si>
     <t xml:space="preserve">ほう…魔法に興味があるのか？
@@ -160,11 +145,6 @@
     <t xml:space="preserve">Well... thou art intrigued by magic, art thou? 
 If there is a spellbook thou desirest to have copied, then leave it to me. To decipher each rune, of such an arcane tome, requires time. Should I deem it worthy of my attention, I may see fit to create a copy.
 There are rare books that even I must labor over them, but given sufficient time, a flawless copy shall certainly be within my power.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">호오… 마법에 관심이 있는가?
-혹시 복제하고 싶은 마법서가 있다면, 내게 맡기거라. 마법서의 사본을 만드는 작업은 룬을 한 글자 한 글자 해석해야 하는 고된 일이지. 내가 내키면 복제를 만들어 주마.
-해독이 난해한 것도 있지만, 충분한 시간만 있다면 복제할 수 있을 거다.</t>
   </si>
   <si>
     <t xml:space="preserve">last</t>
@@ -206,26 +186,49 @@
 In times long past, when I yet possessed the form of a mortal man, I delved deep into the runes and mastered the art of spellwriting. A rare skill now lost to those who dwell upon the earth.</t>
   </si>
   <si>
+    <t xml:space="preserve">この場所に身を置いて以来、汝たちを遠くから見守っているつもりだったが、イスシズルと対峙するというのであれば、我が知識が必要となるだろう。
+…もし汝が魔術の助力を求めるなら、我の元を訪ねるがいい。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since I took my abode in this place, I sought to watch over thee from afar, yet if thou art to confront Issizzle, my knowledge shall be of dire need.
+...Shouldst thou seek the aid of magic, come forth unto me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">completeQuest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">신들과 오래된 존재들은 오만하지. 오랜 세월을 살아 온 그 자들은, 세계의 이치마저 일그러뜨린 것이다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">듣고 싶은 이야기가 있다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">나의 지식을 원하는가.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마법서 예약에 대해</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(돌아간다)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">호오… 마법에 관심이 있는가?
+혹시 복제하고 싶은 마법서가 있다면, 내게 맡기거라. 마법서의 사본을 만드는 작업은 룬을 한 글자 한 글자 해석해야 하는 고된 일이지. 내가 내키면 복제를 만들어 주마.
+해독이 난해한 것도 있지만, 충분한 시간만 있다면 복제할 수 있을 거다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">…#pc. 그대에게 할 이야기가 있다.
 일찍이 사람의 몸으로 지내던 시절, 나는 룬을 연구하여 고대의 마법서를 써내는 기술을 몸에 익혔다. 지상의 자들은 이미 모두 잊게 된, 희귀한 기술이지.</t>
   </si>
   <si>
-    <t xml:space="preserve">この場所に身を置いて以来、汝たちを遠くから見守っているつもりだったが、イスシズルと対峙するというのであれば、我が知識が必要となるだろう。
-…もし汝が魔術の助力を求めるなら、我の元を訪ねるがいい。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since I took my abode in this place, I sought to watch over thee from afar, yet if thou art to confront Issizzle, my knowledge shall be of dire need.
-...Shouldst thou seek the aid of magic, come forth unto me.</t>
-  </si>
-  <si>
     <t xml:space="preserve">이곳에 몸을 두게 된 이래로, 그대들을 멀리서 지켜볼 셈이었다. 그러나 이스시즐과 맞서게 된다면, 나의 지식이 필요하게 될 테지.
 …혹시 그대가 마술의 조력을 갈구한다면, 나를 찾아오거라.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">completeQuest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end</t>
   </si>
 </sst>
 </file>
@@ -246,25 +249,25 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
+      <family/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
+      <family/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
+      <family/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="0"/>
+      <family/>
       <charset val="128"/>
     </font>
     <font>
@@ -297,7 +300,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -306,66 +309,66 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -379,13 +382,13 @@
   <dxfs count="1">
     <dxf>
       <font>
+        <color rgb="FFCC0000"/>
         <name val="游ゴシック"/>
+        <family val="2"/>
         <charset val="128"/>
-        <family val="2"/>
-        <color rgb="FFCC0000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
@@ -561,33 +564,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L30" sqref="L30"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="7.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="60.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="53.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.06"/>
+    <col min="1" max="1" width="8.85" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.85" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85" style="1" customWidth="1"/>
+    <col min="8" max="9" width="7.09" style="1" customWidth="1"/>
+    <col min="10" max="10" width="60.76" style="1" customWidth="1"/>
+    <col min="11" max="11" width="53.28" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.06" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="12.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,24 +628,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I2" s="1" t="n">
-        <f aca="false">MAX(I4:I1048576)</f>
+    <row r="2" ht="12.8">
+      <c r="I2" s="1">
+        <f>MAX(I4:I1048576)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="12.8">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" ht="12.8">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I8" s="1" t="n">
+    <row r="8" ht="23.85">
+      <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
@@ -651,58 +654,58 @@
       <c r="K8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" ht="12.8">
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" ht="12.8">
       <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" ht="12.8">
+      <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="1" t="s">
+    <row r="12" ht="12.8">
+      <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="1" t="s">
+    </row>
+    <row r="13" ht="12.8">
+      <c r="E13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" ht="12.8">
       <c r="A15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -711,48 +714,48 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="1" t="n">
+      <c r="I15" s="1">
         <v>3</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" ht="12.8">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="1" t="n">
+      <c r="I16" s="1">
         <v>4</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" ht="12.8">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
         <v>13</v>
@@ -760,26 +763,26 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="1" t="n">
+      <c r="I17" s="1">
         <v>5</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" ht="12.8">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
         <v>13</v>
@@ -787,7 +790,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -797,7 +800,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" ht="12.8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -811,7 +814,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" ht="12.8">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -825,9 +828,9 @@
       <c r="L20" s="6"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" ht="22.35">
       <c r="A21" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -841,7 +844,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="387.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" ht="105.95">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -850,24 +853,24 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="1" t="n">
+      <c r="I22" s="1">
         <v>6</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" ht="12.8">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -880,65 +883,65 @@
       <c r="L23" s="6"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" ht="12.8">
       <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" ht="12.8">
+      <c r="E28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" ht="56.7">
+      <c r="I29" s="1">
+        <v>7</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" ht="57.45">
+      <c r="I30" s="1">
+        <v>8</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="1" t="s">
+      <c r="L30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" ht="12.8">
+      <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="8" t="s">
+    </row>
+    <row r="32" ht="12.8">
+      <c r="E32" s="1" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I29" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I30" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I4:I1048576">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter>
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
